--- a/data/output/FV2410_FV2404/INVOIC/31011.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31011.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="322">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="322">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1077,6 +1077,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U189" totalsRowShown="0">
+  <autoFilter ref="A1:U189"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1366,7 +1396,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9956,5 +9989,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/INVOIC/31011.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31011.xlsx
@@ -2031,7 +2031,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -2919,7 +2919,7 @@
         <v>303</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2"/>
@@ -3107,7 +3107,7 @@
         <v>303</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2"/>
@@ -3295,7 +3295,7 @@
         <v>304</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2"/>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2"/>
@@ -3679,7 +3679,7 @@
         <v>307</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="2"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4001,7 +4001,7 @@
         <v>308</v>
       </c>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4397,7 +4397,7 @@
         <v>304</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6777,7 +6777,7 @@
         <v>314</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8665,7 +8665,7 @@
         <v>303</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -8869,7 +8869,7 @@
         <v>303</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9073,7 +9073,7 @@
         <v>304</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N165" s="2"/>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N187" s="2"/>
